--- a/Numerical methods/LW8/LW8.xlsx
+++ b/Numerical methods/LW8/LW8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\studies\Numerical methods\LW8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\studies\Numerical methods\LW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56B3CF5-F1CA-4742-B863-DF47D2D471AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204936C-2417-4B18-8BD6-EBD0768563FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7710" yWindow="1800" windowWidth="21585" windowHeight="11370" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Половинного деления" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Номер итерации</t>
   </si>
@@ -56,19 +53,7 @@
     <t>f(x2)</t>
   </si>
   <si>
-    <t>c = (a + b) / 2</t>
-  </si>
-  <si>
-    <t>x1 = c - EPS/2</t>
-  </si>
-  <si>
-    <t>x2 = c + EPS / 2</t>
-  </si>
-  <si>
     <t>STOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x* = </t>
   </si>
   <si>
     <t>x1 = b - c</t>
@@ -81,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">delta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">eps </t>
   </si>
   <si>
     <t>T</t>
@@ -105,6 +87,21 @@
   </si>
   <si>
     <t>f''(x)</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>x1 = a + alpha*(b-a)/2</t>
+  </si>
+  <si>
+    <t>x2 = b - alpha*(b-a)/ 2</t>
+  </si>
+  <si>
+    <t>b - a</t>
+  </si>
+  <si>
+    <t>x*</t>
   </si>
 </sst>
 </file>
@@ -152,8 +149,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,21 +431,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M18"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,13 +456,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
@@ -474,10 +471,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -488,35 +485,35 @@
         <v>10</v>
       </c>
       <c r="E3" s="3">
-        <f>(C3 + D3) / 2</f>
-        <v>5</v>
+        <f>D3 - C3</f>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
-        <f>E3 - $M$4 / 2</f>
-        <v>4.9999500000000001</v>
+        <f>C3 + $M$4 * E3 / 2</f>
+        <v>2.75</v>
       </c>
       <c r="G3" s="3">
-        <f>E3 + $M$4 / 2</f>
-        <v>5.0000499999999999</v>
+        <f>D3 - $M$4 * E3 / 2</f>
+        <v>7.25</v>
       </c>
       <c r="H3" s="3">
-        <v>3.1629800000000001</v>
+        <v>3.3265260843973801</v>
       </c>
       <c r="I3" s="3">
-        <v>3.1629900000000002</v>
+        <v>6.4274841079854497</v>
       </c>
       <c r="J3">
         <f>IF(D3 - C3 &lt;= 2 * $M$3, 1,0)</f>
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -525,465 +522,963 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>IF(H3 = I3, G3, IF(H3 &lt; I3, G3, D3))</f>
-        <v>5.0000499999999999</v>
+        <f t="shared" ref="D4:D16" si="0">IF(H3 = I3, G3, IF(H3 &lt; I3, G3, D3))</f>
+        <v>7.25</v>
       </c>
       <c r="E4" s="3">
-        <f>(C4 + D4) / 2</f>
-        <v>2.5000249999999999</v>
+        <f>D4 - C4</f>
+        <v>7.25</v>
       </c>
       <c r="F4" s="3">
-        <f>E4 - $M$4 / 2</f>
-        <v>2.4999750000000001</v>
+        <f>C4 + $M$4 * E4 / 2</f>
+        <v>1.9937500000000001</v>
       </c>
       <c r="G4" s="3">
-        <f>E4 + $M$4 / 2</f>
-        <v>2.5000749999999998</v>
+        <f>D4 - $M$4 * E4 / 2</f>
+        <v>5.2562499999999996</v>
       </c>
       <c r="H4" s="3">
-        <v>3.4853000000000001</v>
+        <v>4.0852353991413999</v>
       </c>
       <c r="I4" s="3">
-        <v>3.5889684445222598</v>
+        <v>3.1998319014809602</v>
       </c>
       <c r="J4">
-        <f>IF(D4 - C4 &lt;= 2 * $M$3, 1,0)</f>
+        <f t="shared" ref="J3:J16" si="1">IF(D4 - C4 &lt;= 2 * $M$3, 1,0)</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <f>IF(H4 = I4, F4, IF(H4 &gt; I4, F4, C4))</f>
-        <v>0</v>
+        <f t="shared" ref="C4:C16" si="2">IF(H4 = I4, F4, IF(H4 &gt; I4, F4, C4))</f>
+        <v>1.9937500000000001</v>
       </c>
       <c r="D5" s="3">
-        <f>IF(H4 = I4, G4, IF(H4 &lt; I4, G4, D4))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.25</v>
       </c>
       <c r="E5" s="3">
-        <f>(C5 + D5) / 2</f>
-        <v>1.2500374999999999</v>
+        <f>D5 - C5</f>
+        <v>5.2562499999999996</v>
       </c>
       <c r="F5" s="3">
-        <f>E5 - $M$4 / 2</f>
-        <v>1.2499874999999998</v>
+        <f>C5 + $M$4 * E5 / 2</f>
+        <v>3.4392187500000002</v>
       </c>
       <c r="G5" s="3">
-        <f>E5 + $M$4 / 2</f>
-        <v>1.2500875</v>
+        <f>D5 - $M$4 * E5 / 2</f>
+        <v>5.8045312500000001</v>
       </c>
       <c r="H5" s="3">
-        <v>5.9789500000000002</v>
+        <v>3.1582057744869698</v>
       </c>
       <c r="I5" s="3">
-        <v>5.9785899999999996</v>
+        <v>3.42896293160624</v>
       </c>
       <c r="J5">
-        <f>IF(D5 - C5 &lt;= 2 * $M$3, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>IF(H5 = I5, F5, IF(H5 &gt; I5, F5, C5))</f>
-        <v>1.2499874999999998</v>
+        <f t="shared" si="2"/>
+        <v>1.9937500000000001</v>
       </c>
       <c r="D6" s="3">
-        <f>IF(H5 = I5, G5, IF(H5 &lt; I5, G5, D5))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.8045312500000001</v>
       </c>
       <c r="E6" s="3">
-        <f>(C6 + D6) / 2</f>
-        <v>1.8750312499999997</v>
+        <f>D6 - C6</f>
+        <v>3.8107812499999998</v>
       </c>
       <c r="F6" s="3">
-        <f>E6 - $M$4 / 2</f>
-        <v>1.8749812499999996</v>
+        <f>C6 + $M$4 * E6 / 2</f>
+        <v>3.0417148437500003</v>
       </c>
       <c r="G6" s="3">
-        <f>E6 + $M$4 / 2</f>
-        <v>1.8750812499999998</v>
+        <f>D6 - $M$4 * E6 / 2</f>
+        <v>4.7565664062500002</v>
       </c>
       <c r="H6" s="3">
-        <v>4.2954800000000004</v>
+        <v>3.2189964778412699</v>
       </c>
       <c r="I6" s="3">
-        <v>4.2952899999999996</v>
+        <v>3.1488591752617401</v>
       </c>
       <c r="J6">
-        <f>IF(D6 - C6 &lt;= 2 * $M$3, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f>IF(H6 = I6, F6, IF(H6 &gt; I6, F6, C6))</f>
-        <v>1.8749812499999996</v>
+        <f t="shared" si="2"/>
+        <v>3.0417148437500003</v>
       </c>
       <c r="D7" s="3">
-        <f>IF(H6 = I6, G6, IF(H6 &lt; I6, G6, D6))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.8045312500000001</v>
       </c>
       <c r="E7" s="3">
-        <f>(C7 + D7) / 2</f>
-        <v>2.1875281249999996</v>
+        <f>D7 - C7</f>
+        <v>2.7628164062499998</v>
       </c>
       <c r="F7" s="3">
-        <f>E7 - $M$4 / 2</f>
-        <v>2.1874781249999997</v>
+        <f>C7 + $M$4 * E7 / 2</f>
+        <v>3.8014893554687506</v>
       </c>
       <c r="G7" s="3">
-        <f>E7 + $M$4 / 2</f>
-        <v>2.1875781249999995</v>
+        <f>D7 - $M$4 * E7 / 2</f>
+        <v>5.0447567382812499</v>
       </c>
       <c r="H7" s="3">
-        <v>3.8036099999999999</v>
+        <v>3.1453853179167299</v>
       </c>
       <c r="I7" s="3">
-        <v>3.80348</v>
+        <v>3.1674303550512199</v>
       </c>
       <c r="J7">
-        <f>IF(D7 - C7 &lt;= 2 * $M$3, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <f>IF(H7 = I7, F7, IF(H7 &gt; I7, F7, C7))</f>
-        <v>2.1874781249999997</v>
+        <f t="shared" si="2"/>
+        <v>3.0417148437500003</v>
       </c>
       <c r="D8" s="3">
-        <f>IF(H7 = I7, G7, IF(H7 &lt; I7, G7, D7))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.0447567382812499</v>
       </c>
       <c r="E8" s="3">
-        <f>(C8 + D8) / 2</f>
-        <v>2.3437765624999995</v>
+        <f>D8 - C8</f>
+        <v>2.0030418945312496</v>
       </c>
       <c r="F8" s="3">
-        <f>E8 - $M$4 / 2</f>
-        <v>2.3437265624999997</v>
+        <f>C8 + $M$4 * E8 / 2</f>
+        <v>3.592551364746094</v>
       </c>
       <c r="G8" s="3">
-        <f>E8 + $M$4 / 2</f>
-        <v>2.3438265624999994</v>
+        <f>D8 - $M$4 * E8 / 2</f>
+        <v>4.4939202172851562</v>
       </c>
       <c r="H8" s="3">
-        <v>3.6255600000000001</v>
+        <v>3.1499501788062698</v>
       </c>
       <c r="I8" s="3">
-        <v>3.6254599999999999</v>
+        <v>3.1447558223863901</v>
       </c>
       <c r="J8">
         <f>IF(D8 - C8 &lt;= 2 * $M$3, 1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <f>IF(H8 = I8, F8, IF(H8 &gt; I8, F8, C8))</f>
-        <v>2.3437265624999997</v>
+        <f t="shared" si="2"/>
+        <v>3.592551364746094</v>
       </c>
       <c r="D9" s="3">
-        <f>IF(H8 = I8, G8, IF(H8 &lt; I8, G8, D8))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.0447567382812499</v>
       </c>
       <c r="E9" s="3">
-        <f>(C9 + D9) / 2</f>
-        <v>2.4219007812499997</v>
+        <f>D9 - C9</f>
+        <v>1.4522053735351559</v>
       </c>
       <c r="F9" s="3">
-        <f>E9 - $M$4 / 2</f>
-        <v>2.4218507812499999</v>
+        <f>C9 + $M$4 * E9 / 2</f>
+        <v>3.9919078424682621</v>
       </c>
       <c r="G9" s="3">
-        <f>E9 + $M$4 / 2</f>
-        <v>2.4219507812499996</v>
+        <f>D9 - $M$4 * E9 / 2</f>
+        <v>4.6454002605590823</v>
       </c>
       <c r="H9" s="3">
-        <v>3.5510799999999998</v>
+        <v>3.1444530764908598</v>
       </c>
       <c r="I9" s="3">
-        <v>3.5509900000000001</v>
+        <v>3.1462545839171501</v>
       </c>
       <c r="J9">
         <f>IF(D9 - C9 &lt;= 2 * $M$3, 1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <f>IF(H9 = I9, F9, IF(H9 &gt; I9, F9, C9))</f>
-        <v>2.4218507812499999</v>
+        <f t="shared" si="2"/>
+        <v>3.592551364746094</v>
       </c>
       <c r="D10" s="3">
-        <f>IF(H9 = I9, G9, IF(H9 &lt; I9, G9, D9))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.6454002605590823</v>
       </c>
       <c r="E10" s="3">
-        <f>(C10 + D10) / 2</f>
-        <v>2.4609628906249998</v>
+        <f>D10 - C10</f>
+        <v>1.0528488958129882</v>
       </c>
       <c r="F10" s="3">
-        <f>E10 - $M$4 / 2</f>
-        <v>2.460912890625</v>
+        <f>C10 + $M$4 * E10 / 2</f>
+        <v>3.882084811094666</v>
       </c>
       <c r="G10" s="3">
-        <f>E10 + $M$4 / 2</f>
-        <v>2.4610128906249997</v>
+        <f>D10 - $M$4 * E10 / 2</f>
+        <v>4.3558668142105104</v>
       </c>
       <c r="H10" s="3">
-        <v>3.5171800000000002</v>
+        <v>3.1447806077434</v>
       </c>
       <c r="I10" s="3">
-        <v>3.51709</v>
+        <v>3.14441778873466</v>
       </c>
       <c r="J10">
         <f>IF(D10 - C10 &lt;= 2 * $M$3, 1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <f>IF(H10 = I10, F10, IF(H10 &gt; I10, F10, C10))</f>
-        <v>2.460912890625</v>
+        <f t="shared" si="2"/>
+        <v>3.882084811094666</v>
       </c>
       <c r="D11" s="3">
-        <f>IF(H10 = I10, G10, IF(H10 &lt; I10, G10, D10))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.6454002605590823</v>
       </c>
       <c r="E11" s="3">
-        <f>(C11 + D11) / 2</f>
-        <v>2.4804939453124999</v>
+        <f>D11 - C11</f>
+        <v>0.76331544946441632</v>
       </c>
       <c r="F11" s="3">
-        <f>E11 - $M$4 / 2</f>
-        <v>2.4804439453125</v>
+        <f>C11 + $M$4 * E11 / 2</f>
+        <v>4.0919965596973809</v>
       </c>
       <c r="G11" s="3">
-        <f>E11 + $M$4 / 2</f>
-        <v>2.4805439453124998</v>
+        <f>D11 - $M$4 * E11 / 2</f>
+        <v>4.4354885119563674</v>
       </c>
       <c r="H11" s="3">
-        <v>3.50102</v>
+        <v>3.1443891453137098</v>
       </c>
       <c r="I11" s="3">
-        <v>3.5009399999999999</v>
+        <v>3.1445427215405899</v>
       </c>
       <c r="J11">
         <f>IF(D11 - C11 &lt;= 2 * $M$3, 1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f>IF(H11 = I11, F11, IF(H11 &gt; I11, F11, C11))</f>
-        <v>2.4804439453125</v>
+        <f t="shared" si="2"/>
+        <v>3.882084811094666</v>
       </c>
       <c r="D12" s="3">
-        <f>IF(H11 = I11, G11, IF(H11 &lt; I11, G11, D11))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.4354885119563674</v>
       </c>
       <c r="E12" s="3">
-        <f>(C12 + D12) / 2</f>
-        <v>2.4902594726562501</v>
+        <f>D12 - C12</f>
+        <v>0.55340370086170143</v>
       </c>
       <c r="F12" s="3">
-        <f>E12 - $M$4 / 2</f>
-        <v>2.4902094726562503</v>
+        <f>C12 + $M$4 * E12 / 2</f>
+        <v>4.0342708288316338</v>
       </c>
       <c r="G12" s="3">
-        <f>E12 + $M$4 / 2</f>
-        <v>2.49030947265625</v>
+        <f>D12 - $M$4 * E12 / 2</f>
+        <v>4.2833024942193996</v>
       </c>
       <c r="H12" s="3">
-        <v>3.4931399999999999</v>
+        <v>3.1444110947472299</v>
       </c>
       <c r="I12" s="3">
-        <v>3.4930599999999998</v>
+        <v>3.1443882781164998</v>
       </c>
       <c r="J12">
         <f>IF(D12 - C12 &lt;= 2 * $M$3, 1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f>IF(H12 = I12, F12, IF(H12 &gt; I12, F12, C12))</f>
-        <v>2.4902094726562503</v>
+        <f t="shared" si="2"/>
+        <v>4.0342708288316338</v>
       </c>
       <c r="D13" s="3">
-        <f>IF(H12 = I12, G12, IF(H12 &lt; I12, G12, D12))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.4354885119563674</v>
       </c>
       <c r="E13" s="3">
-        <f>(C13 + D13) / 2</f>
-        <v>2.495142236328125</v>
+        <f>D13 - C13</f>
+        <v>0.4012176831247336</v>
       </c>
       <c r="F13" s="3">
-        <f>E13 - $M$4 / 2</f>
-        <v>2.4950922363281252</v>
+        <f>C13 + $M$4 * E13 / 2</f>
+        <v>4.144605691690936</v>
       </c>
       <c r="G13" s="3">
-        <f>E13 + $M$4 / 2</f>
-        <v>2.4951922363281249</v>
-      </c>
-      <c r="H13">
-        <v>3.4892400000000001</v>
+        <f>D13 - $M$4 * E13 / 2</f>
+        <v>4.3251536490970652</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.14438522058009</v>
       </c>
       <c r="I13">
-        <v>3.48916</v>
+        <v>3.1443994310708101</v>
       </c>
       <c r="J13">
-        <f>IF(D13 - C13 &lt;= 2 * $M$3, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J13:J30" si="3">IF(D13 - C13 &lt;= 2 * $M$3, 1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f>IF(H13 = I13, F13, IF(H13 &gt; I13, F13, C13))</f>
-        <v>2.4950922363281252</v>
+        <f t="shared" si="2"/>
+        <v>4.0342708288316338</v>
       </c>
       <c r="D14" s="3">
-        <f>IF(H13 = I13, G13, IF(H13 &lt; I13, G13, D13))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.3251536490970652</v>
       </c>
       <c r="E14" s="3">
-        <f>(C14 + D14) / 2</f>
-        <v>2.4975836181640627</v>
+        <f>D14 - C14</f>
+        <v>0.29088282026543144</v>
       </c>
       <c r="F14" s="3">
-        <f>E14 - $M$4 / 2</f>
-        <v>2.4975336181640628</v>
+        <f>C14 + $M$4 * E14 / 2</f>
+        <v>4.114263604404627</v>
       </c>
       <c r="G14" s="3">
-        <f>E14 + $M$4 / 2</f>
-        <v>2.4976336181640626</v>
+        <f>D14 - $M$4 * E14 / 2</f>
+        <v>4.245160873524072</v>
       </c>
       <c r="H14">
-        <v>3.4873099999999999</v>
+        <v>3.14438650461874</v>
       </c>
       <c r="I14">
-        <v>3.4872299999999998</v>
+        <v>3.1443854183951099</v>
       </c>
       <c r="J14">
-        <f>IF(D14 - C14 &lt;= 2 * $M$3, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <f>IF(H14 = I14, F14, IF(H14 &gt; I14, F14, C14))</f>
-        <v>2.4975336181640628</v>
+        <f t="shared" si="2"/>
+        <v>4.114263604404627</v>
       </c>
       <c r="D15" s="3">
-        <f>IF(H14 = I14, G14, IF(H14 &lt; I14, G14, D14))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.3251536490970652</v>
       </c>
       <c r="E15" s="3">
-        <f>(C15 + D15) / 2</f>
-        <v>2.4988043090820313</v>
+        <f>D15 - C15</f>
+        <v>0.21089004469243822</v>
       </c>
       <c r="F15" s="3">
-        <f>E15 - $M$4 / 2</f>
-        <v>2.4987543090820314</v>
+        <f>C15 + $M$4 * E15 / 2</f>
+        <v>4.1722583666950479</v>
       </c>
       <c r="G15" s="3">
-        <f>E15 + $M$4 / 2</f>
-        <v>2.4988543090820312</v>
+        <f>D15 - $M$4 * E15 / 2</f>
+        <v>4.2671588868066443</v>
       </c>
       <c r="H15">
-        <v>3.4863499999999998</v>
+        <v>3.14438503156101</v>
       </c>
       <c r="I15">
-        <v>3.4862700000000002</v>
+        <v>3.1443865412218202</v>
       </c>
       <c r="J15">
-        <f>IF(D15 - C15 &lt;= 2 * $M$3, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <f>IF(H15 = I15, F15, IF(H15 &gt; I15, F15, C15))</f>
-        <v>2.4987543090820314</v>
+        <f t="shared" si="2"/>
+        <v>4.114263604404627</v>
       </c>
       <c r="D16" s="3">
-        <f>IF(H15 = I15, G15, IF(H15 &lt; I15, G15, D15))</f>
-        <v>2.5000749999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.2671588868066443</v>
       </c>
       <c r="E16" s="3">
-        <f>(C16 + D16) / 2</f>
-        <v>2.4994146545410159</v>
+        <f>D16 - C16</f>
+        <v>0.15289528240201733</v>
       </c>
       <c r="F16" s="3">
-        <f>E16 - $M$4 / 2</f>
-        <v>2.499364654541016</v>
+        <f>C16 + $M$4 * E16 / 2</f>
+        <v>4.156309807065182</v>
       </c>
       <c r="G16" s="3">
-        <f>E16 + $M$4 / 2</f>
-        <v>2.4994646545410157</v>
+        <f>D16 - $M$4 * E16 / 2</f>
+        <v>4.2251126841460893</v>
       </c>
       <c r="H16">
-        <v>3.4858699999999998</v>
+        <v>3.1443850864237</v>
       </c>
       <c r="I16">
-        <v>3.4857900000000002</v>
+        <v>3.14438508975894</v>
       </c>
       <c r="J16">
-        <f>IF(D16 - C16 &lt;= 2 * $M$3, 1,0)</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17" si="4">IF(H16 = I16, F16, IF(H16 &gt; I16, F16, C16))</f>
+        <v>4.114263604404627</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17" si="5">IF(H16 = I16, G16, IF(H16 &lt; I16, G16, D16))</f>
+        <v>4.2251126841460893</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17 - C17</f>
+        <v>0.1108490797414623</v>
+      </c>
+      <c r="F17" s="3">
+        <f>C17 + $M$4 * E17 / 2</f>
+        <v>4.1447471013335289</v>
+      </c>
+      <c r="G17" s="3">
+        <f>D17 - $M$4 * E17 / 2</f>
+        <v>4.1946291872171875</v>
+      </c>
+      <c r="H17">
+        <v>3.1443852182242402</v>
+      </c>
+      <c r="I17">
+        <v>3.1443850267510101</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18" si="6">IF(H17 = I17, F17, IF(H17 &gt; I17, F17, C17))</f>
+        <v>4.1447471013335289</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18" si="7">IF(H17 = I17, G17, IF(H17 &lt; I17, G17, D17))</f>
+        <v>4.2251126841460893</v>
+      </c>
+      <c r="E18" s="3">
+        <f>D18 - C18</f>
+        <v>8.0365582812560454E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f>C18 + $M$4 * E18 / 2</f>
+        <v>4.1668476366069829</v>
+      </c>
+      <c r="G18" s="3">
+        <f>D18 - $M$4 * E18 / 2</f>
+        <v>4.2030121488726353</v>
+      </c>
+      <c r="H18">
+        <v>3.1443850403857998</v>
+      </c>
+      <c r="I18">
+        <v>3.1443850278189598</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19" si="8">IF(H18 = I18, F18, IF(H18 &gt; I18, F18, C18))</f>
+        <v>4.1668476366069829</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19" si="9">IF(H18 = I18, G18, IF(H18 &lt; I18, G18, D18))</f>
+        <v>4.2251126841460893</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D19 - C19</f>
+        <v>5.826504753910644E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f>C19 + $M$4 * E19 / 2</f>
+        <v>4.1828705246802373</v>
+      </c>
+      <c r="G19" s="3">
+        <f>D19 - $M$4 * E19 / 2</f>
+        <v>4.2090897960728348</v>
+      </c>
+      <c r="H19">
+        <v>3.1443850268845801</v>
+      </c>
+      <c r="I19">
+        <v>3.1443850319961002</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20" si="10">IF(H19 = I19, F19, IF(H19 &gt; I19, F19, C19))</f>
+        <v>4.1668476366069829</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20" si="11">IF(H19 = I19, G19, IF(H19 &lt; I19, G19, D19))</f>
+        <v>4.2090897960728348</v>
+      </c>
+      <c r="E20" s="3">
+        <f>D20 - C20</f>
+        <v>4.2242159465851969E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <f>C20 + $M$4 * E20 / 2</f>
+        <v>4.1784642304600919</v>
+      </c>
+      <c r="G20" s="3">
+        <f>D20 - $M$4 * E20 / 2</f>
+        <v>4.1974732022197259</v>
+      </c>
+      <c r="H20">
+        <v>3.14438502765115</v>
+      </c>
+      <c r="I20">
+        <v>3.1443850268427598</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21" si="12">IF(H20 = I20, F20, IF(H20 &gt; I20, F20, C20))</f>
+        <v>4.1784642304600919</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ref="D21" si="13">IF(H20 = I20, G20, IF(H20 &lt; I20, G20, D20))</f>
+        <v>4.2090897960728348</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21 - C21</f>
+        <v>3.0625565612742989E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <f>C21 + $M$4 * E21 / 2</f>
+        <v>4.186886261003596</v>
+      </c>
+      <c r="G21" s="3">
+        <f>D21 - $M$4 * E21 / 2</f>
+        <v>4.2006677655293307</v>
+      </c>
+      <c r="H21">
+        <v>3.1443850267452098</v>
+      </c>
+      <c r="I21">
+        <v>3.1443850272109399</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22" si="14">IF(H21 = I21, F21, IF(H21 &gt; I21, F21, C21))</f>
+        <v>4.1784642304600919</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22" si="15">IF(H21 = I21, G21, IF(H21 &lt; I21, G21, D21))</f>
+        <v>4.2006677655293307</v>
+      </c>
+      <c r="E22" s="3">
+        <f>D22 - C22</f>
+        <v>2.2203535069238889E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <f>C22 + $M$4 * E22 / 2</f>
+        <v>4.1845702026041325</v>
+      </c>
+      <c r="G22" s="3">
+        <f>D22 - $M$4 * E22 / 2</f>
+        <v>4.1945617933852901</v>
+      </c>
+      <c r="H22">
+        <v>3.1443850267912699</v>
+      </c>
+      <c r="I22">
+        <v>3.1443850267501499</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23" si="16">IF(H22 = I22, F22, IF(H22 &gt; I22, F22, C22))</f>
+        <v>4.1845702026041325</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23" si="17">IF(H22 = I22, G22, IF(H22 &lt; I22, G22, D22))</f>
+        <v>4.2006677655293307</v>
+      </c>
+      <c r="E23" s="3">
+        <f>D23 - C23</f>
+        <v>1.6097562925198261E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <f>C23 + $M$4 * E23 / 2</f>
+        <v>4.1889970324085617</v>
+      </c>
+      <c r="G23" s="3">
+        <f>D23 - $M$4 * E23 / 2</f>
+        <v>4.1962409357249015</v>
+      </c>
+      <c r="H23">
+        <v>3.1443850267381799</v>
+      </c>
+      <c r="I23">
+        <v>3.1443850267863098</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24" si="18">IF(H23 = I23, F23, IF(H23 &gt; I23, F23, C23))</f>
+        <v>4.1845702026041325</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24" si="19">IF(H23 = I23, G23, IF(H23 &lt; I23, G23, D23))</f>
+        <v>4.1962409357249015</v>
+      </c>
+      <c r="E24" s="3">
+        <f>D24 - C24</f>
+        <v>1.167073312076905E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <f>C24 + $M$4 * E24 / 2</f>
+        <v>4.1877796542123438</v>
+      </c>
+      <c r="G24" s="3">
+        <f>D24 - $M$4 * E24 / 2</f>
+        <v>4.1930314841166902</v>
+      </c>
+      <c r="H24">
+        <v>3.14438502674028</v>
+      </c>
+      <c r="I24">
+        <v>3.1443850267398301</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25" si="20">IF(H24 = I24, F24, IF(H24 &gt; I24, F24, C24))</f>
+        <v>4.1877796542123438</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25" si="21">IF(H24 = I24, G24, IF(H24 &lt; I24, G24, D24))</f>
+        <v>4.1962409357249015</v>
+      </c>
+      <c r="E25" s="3">
+        <f>D25 - C25</f>
+        <v>8.4612815125577612E-3</v>
+      </c>
+      <c r="F25" s="3">
+        <f>C25 + $M$4 * E25 / 2</f>
+        <v>4.1901065066282968</v>
+      </c>
+      <c r="G25" s="3">
+        <f>D25 - $M$4 * E25 / 2</f>
+        <v>4.1939140833089485</v>
+      </c>
+      <c r="H25">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="I25">
+        <v>3.1443850267440601</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26" si="22">IF(H25 = I25, F25, IF(H25 &gt; I25, F25, C25))</f>
+        <v>4.1877796542123438</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26" si="23">IF(H25 = I25, G25, IF(H25 &lt; I25, G25, D25))</f>
+        <v>4.1939140833089485</v>
+      </c>
+      <c r="E26" s="3">
+        <f>D26 - C26</f>
+        <v>6.1344290966047765E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <f>C26 + $M$4 * E26 / 2</f>
+        <v>4.1894666222139101</v>
+      </c>
+      <c r="G26" s="3">
+        <f>D26 - $M$4 * E26 / 2</f>
+        <v>4.1922271153073822</v>
+      </c>
+      <c r="H26">
+        <v>3.1443850267380098</v>
+      </c>
+      <c r="I26">
+        <v>3.1443850267383802</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27" si="24">IF(H26 = I26, F26, IF(H26 &gt; I26, F26, C26))</f>
+        <v>4.1877796542123438</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" ref="D27" si="25">IF(H26 = I26, G26, IF(H26 &lt; I26, G26, D26))</f>
+        <v>4.1922271153073822</v>
+      </c>
+      <c r="E27" s="3">
+        <f>D27 - C27</f>
+        <v>4.447461095038463E-3</v>
+      </c>
+      <c r="F27" s="3">
+        <f>C27 + $M$4 * E27 / 2</f>
+        <v>4.1890027060134791</v>
+      </c>
+      <c r="G27" s="3">
+        <f>D27 - $M$4 * E27 / 2</f>
+        <v>4.1910040635062469</v>
+      </c>
+      <c r="H27">
+        <v>3.1443850267381799</v>
+      </c>
+      <c r="I27">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28" si="26">IF(H27 = I27, F27, IF(H27 &gt; I27, F27, C27))</f>
+        <v>4.1890027060134791</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28" si="27">IF(H27 = I27, G27, IF(H27 &lt; I27, G27, D27))</f>
+        <v>4.1922271153073822</v>
+      </c>
+      <c r="E28" s="3">
+        <f>D28 - C28</f>
+        <v>3.2244092939031077E-3</v>
+      </c>
+      <c r="F28" s="3">
+        <f>C28 + $M$4 * E28 / 2</f>
+        <v>4.1898894185693027</v>
+      </c>
+      <c r="G28" s="3">
+        <f>D28 - $M$4 * E28 / 2</f>
+        <v>4.1913404027515586</v>
+      </c>
+      <c r="H28">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="I28">
+        <v>3.1443850267379898</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29" si="28">IF(H28 = I28, F28, IF(H28 &gt; I28, F28, C28))</f>
+        <v>4.1890027060134791</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ref="D29" si="29">IF(H28 = I28, G28, IF(H28 &lt; I28, G28, D28))</f>
+        <v>4.1913404027515586</v>
+      </c>
+      <c r="E29" s="3">
+        <f>D29 - C29</f>
+        <v>2.3376967380794866E-3</v>
+      </c>
+      <c r="F29" s="3">
+        <f>C29 + $M$4 * E29 / 2</f>
+        <v>4.1896455726164508</v>
+      </c>
+      <c r="G29" s="3">
+        <f>D29 - $M$4 * E29 / 2</f>
+        <v>4.190697536148587</v>
+      </c>
+      <c r="H29">
+        <v>3.1443850267379898</v>
+      </c>
+      <c r="I29">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30" si="30">IF(H29 = I29, F29, IF(H29 &gt; I29, F29, C29))</f>
+        <v>4.1896455726164508</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30" si="31">IF(H29 = I29, G29, IF(H29 &lt; I29, G29, D29))</f>
+        <v>4.1913404027515586</v>
+      </c>
+      <c r="E30" s="3">
+        <f>D30 - C30</f>
+        <v>1.6948301351078499E-3</v>
+      </c>
+      <c r="F30" s="3">
+        <f>C30 + $M$4 * E30 / 2</f>
+        <v>4.1901116509036056</v>
+      </c>
+      <c r="G30" s="3">
+        <f>D30 - $M$4 * E30 / 2</f>
+        <v>4.1908743244644038</v>
+      </c>
+      <c r="H30">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="I30">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3">
-        <f>E16</f>
-        <v>2.4994146545410159</v>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
+        <f>(C30+D30) / 2</f>
+        <v>4.1904929876840047</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>3.1443850267379698</v>
       </c>
     </row>
   </sheetData>
@@ -994,21 +1489,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B027C1-59F4-4BF1-A55C-F14E0A90BF7E}">
-  <dimension ref="B2:M26"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,13 +1514,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
@@ -1034,10 +1529,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C3" s="3">
         <v>0</v>
       </c>
@@ -1057,29 +1552,29 @@
         <v>6.1803399999999993</v>
       </c>
       <c r="H3" s="3">
-        <v>3.1452100000000001</v>
+        <v>3.1452113026555701</v>
       </c>
       <c r="I3" s="3">
-        <v>3.7870499999999998</v>
+        <v>3.7870562074938001</v>
       </c>
       <c r="J3" s="3">
-        <f>IF(OR(D3-C3 &lt;= 2 * $M$3, H3=I3), 1, 0)</f>
+        <f t="shared" ref="J3:J10" si="0">IF(OR(D3-C3 &lt;= 2 * $M$3, H3=I3), 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C4" s="3">
-        <f>IF(H3&gt;I3, F3,C3)</f>
+        <f t="shared" ref="C4:C10" si="1">IF(H3&gt;I3, F3,C3)</f>
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>IF(H3&lt;I3,G3,D3)</f>
+        <f t="shared" ref="D4:D10" si="2">IF(H3&lt;I3,G3,D3)</f>
         <v>6.1803399999999993</v>
       </c>
       <c r="E4" s="3">
@@ -1087,406 +1582,590 @@
         <v>3.8196602515599993</v>
       </c>
       <c r="F4" s="3">
-        <f>IF(H3&gt;I3,G3, D4 - E4)</f>
+        <f t="shared" ref="F4:F10" si="3">IF(H3&gt;I3,G3, D4 - E4)</f>
         <v>2.3606797484399999</v>
       </c>
       <c r="G4" s="3">
-        <f>IF(H3 &lt; I3, F3, C4 + E4)</f>
+        <f t="shared" ref="G4:G10" si="4">IF(H3 &lt; I3, F3, C4 + E4)</f>
         <v>3.8196600000000007</v>
       </c>
       <c r="H4" s="3">
-        <v>3.6086200000000002</v>
+        <v>3.60862578045053</v>
       </c>
       <c r="I4" s="3">
-        <v>3.1452100000000001</v>
+        <v>3.1452113026555701</v>
       </c>
       <c r="J4" s="3">
-        <f>IF(OR(D4-C4 &lt;= 2 * $M$3, H4=I4), 1, 0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>0.61803399999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C5" s="3">
         <f>IF(H4&gt;I4, F4,C4)</f>
         <v>2.3606797484399999</v>
       </c>
       <c r="D5" s="3">
-        <f>IF(H4&lt;I4,G4,D4)</f>
+        <f t="shared" si="2"/>
         <v>6.1803399999999993</v>
       </c>
       <c r="E5" s="3">
-        <f>$M$4 * (D5-C5)</f>
+        <f t="shared" ref="E3:E10" si="5">$M$4 * (D5-C5)</f>
         <v>2.3606799039126325</v>
       </c>
       <c r="F5" s="3">
-        <f>IF(H4&gt;I4,G4, D5 - E5)</f>
+        <f t="shared" si="3"/>
         <v>3.8196600000000007</v>
       </c>
       <c r="G5" s="3">
-        <f>IF(H4 &lt; I4, F4, C5 + E5)</f>
+        <f t="shared" si="4"/>
         <v>4.721359652352632</v>
       </c>
       <c r="H5" s="3">
-        <v>3.1452100000000001</v>
+        <v>3.1452113026555701</v>
       </c>
       <c r="I5" s="3">
-        <v>3.14784</v>
+        <v>3.1478478968765198</v>
       </c>
       <c r="J5" s="3">
         <f>IF(OR(D5-C5 &lt;= 2 * $M$3, H5=I5), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" s="3">
         <f>IF(H5&gt;I5, F5,C5)</f>
         <v>2.3606797484399999</v>
       </c>
       <c r="D6" s="3">
-        <f>IF(H5&lt;I5,G5,D5)</f>
+        <f t="shared" ref="D6" si="6">IF(H5&lt;I5,G5,D5)</f>
         <v>4.721359652352632</v>
       </c>
       <c r="E6" s="3">
-        <f>$M$4 * (D6-C6)</f>
+        <f t="shared" ref="E6" si="7">$M$4 * (D6-C6)</f>
         <v>1.4589804437347396</v>
       </c>
       <c r="F6" s="3">
-        <f>IF(H5&gt;I5,G5, D6 - E6)</f>
+        <f t="shared" ref="F6" si="8">IF(H5&gt;I5,G5, D6 - E6)</f>
         <v>3.2623792086178924</v>
       </c>
       <c r="G6" s="3">
-        <f>IF(H5 &lt; I5, F5, C6 + E6)</f>
+        <f t="shared" ref="G6" si="9">IF(H5 &lt; I5, F5, C6 + E6)</f>
         <v>3.8196600000000007</v>
       </c>
       <c r="H6" s="3">
-        <v>3.1764100000000002</v>
+        <v>3.1764173082638099</v>
       </c>
       <c r="I6" s="3">
-        <v>3.1452100000000001</v>
+        <v>3.1452113026555701</v>
       </c>
       <c r="J6" s="3">
         <f>IF(OR(D6-C6 &lt;= 2 * $M$3, H6=I6), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" s="3">
         <f>IF(H6&gt;I6, F6,C6)</f>
         <v>3.2623792086178924</v>
       </c>
       <c r="D7" s="3">
-        <f>IF(H6&lt;I6,G6,D6)</f>
+        <f t="shared" ref="D7" si="10">IF(H6&lt;I6,G6,D6)</f>
         <v>4.721359652352632</v>
       </c>
       <c r="E7" s="3">
-        <f>$M$4 * (D7-C7)</f>
+        <f t="shared" ref="E7" si="11">$M$4 * (D7-C7)</f>
         <v>0.90169951956315597</v>
       </c>
       <c r="F7" s="3">
-        <f>IF(H6&gt;I6,G6, D7 - E7)</f>
+        <f t="shared" ref="F7" si="12">IF(H6&gt;I6,G6, D7 - E7)</f>
         <v>3.8196600000000007</v>
       </c>
       <c r="G7" s="3">
-        <f>IF(H6 &lt; I6, F6, C7 + E7)</f>
+        <f t="shared" ref="G7" si="13">IF(H6 &lt; I6, F6, C7 + E7)</f>
         <v>4.1640787281810487</v>
       </c>
       <c r="H7" s="3">
-        <v>3.1452100000000001</v>
+        <v>3.1452113026555701</v>
       </c>
       <c r="I7" s="3">
-        <v>3.14438</v>
+        <v>3.1443850480023499</v>
       </c>
       <c r="J7" s="3">
         <f>IF(OR(D7-C7 &lt;= 2 * $M$3, H7=I7), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C8" s="3">
         <f>IF(H7&gt;I7, F7,C7)</f>
         <v>3.8196600000000007</v>
       </c>
       <c r="D8" s="3">
-        <f>IF(H7&lt;I7,G7,D7)</f>
+        <f t="shared" ref="D8" si="14">IF(H7&lt;I7,G7,D7)</f>
         <v>4.721359652352632</v>
       </c>
       <c r="E8" s="3">
-        <f>$M$4 * (D8-C8)</f>
+        <f t="shared" ref="E8" si="15">$M$4 * (D8-C8)</f>
         <v>0.55728104294210612</v>
       </c>
       <c r="F8" s="3">
-        <f>IF(H7&gt;I7,G7, D8 - E8)</f>
+        <f t="shared" ref="F8" si="16">IF(H7&gt;I7,G7, D8 - E8)</f>
         <v>4.1640787281810487</v>
       </c>
       <c r="G8" s="3">
-        <f>IF(H7 &lt; I7, F7, C8 + E8)</f>
+        <f t="shared" ref="G8" si="17">IF(H7 &lt; I7, F7, C8 + E8)</f>
         <v>4.3769410429421072</v>
       </c>
       <c r="H8" s="3">
-        <v>3.14438</v>
+        <v>3.1443850480023499</v>
       </c>
       <c r="I8" s="3">
-        <v>3.1444299999999998</v>
+        <v>3.1444379464559198</v>
       </c>
       <c r="J8" s="3">
         <f>IF(OR(D8-C8 &lt;= 2 * $M$3, H8=I8), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C9" s="3">
         <f>IF(H8&gt;I8, F8,C8)</f>
         <v>3.8196600000000007</v>
       </c>
       <c r="D9" s="3">
-        <f>IF(H8&lt;I8,G8,D8)</f>
+        <f t="shared" ref="D9" si="18">IF(H8&lt;I8,G8,D8)</f>
         <v>4.3769410429421072</v>
       </c>
       <c r="E9" s="3">
-        <f>$M$4 * (D9-C9)</f>
+        <f t="shared" ref="E9" si="19">$M$4 * (D9-C9)</f>
         <v>0.34441863209368179</v>
       </c>
       <c r="F9" s="3">
-        <f>IF(H8&gt;I8,G8, D9 - E9)</f>
+        <f t="shared" ref="F9" si="20">IF(H8&gt;I8,G8, D9 - E9)</f>
         <v>4.0325224108484257</v>
       </c>
       <c r="G9" s="3">
-        <f>IF(H8 &lt; I8, F8, C9 + E9)</f>
+        <f t="shared" ref="G9" si="21">IF(H8 &lt; I8, F8, C9 + E9)</f>
         <v>4.1640787281810487</v>
       </c>
       <c r="H9" s="3">
-        <v>3.1444100000000001</v>
+        <v>3.14441228244789</v>
       </c>
       <c r="I9" s="3">
-        <v>3.14438</v>
+        <v>3.1443850480023499</v>
       </c>
       <c r="J9" s="3">
         <f>IF(OR(D9-C9 &lt;= 2 * $M$3, H9=I9), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" s="3">
         <f>IF(H9&gt;I9, F9,C9)</f>
         <v>4.0325224108484257</v>
       </c>
       <c r="D10" s="3">
-        <f>IF(H9&lt;I9,G9,D9)</f>
+        <f t="shared" ref="D10" si="22">IF(H9&lt;I9,G9,D9)</f>
         <v>4.3769410429421072</v>
       </c>
       <c r="E10" s="3">
-        <f>$M$4 * (D10-C10)</f>
+        <f t="shared" ref="E10" si="23">$M$4 * (D10-C10)</f>
         <v>0.21286242486738635</v>
       </c>
       <c r="F10" s="3">
-        <f>IF(H9&gt;I9,G9, D10 - E10)</f>
+        <f t="shared" ref="F10" si="24">IF(H9&gt;I9,G9, D10 - E10)</f>
         <v>4.1640787281810487</v>
       </c>
       <c r="G10" s="3">
-        <f>IF(H9 &lt; I9, F9, C10 + E10)</f>
+        <f t="shared" ref="G10" si="25">IF(H9 &lt; I9, F9, C10 + E10)</f>
         <v>4.2453848357158117</v>
       </c>
       <c r="H10" s="3">
-        <v>3.14438</v>
+        <v>3.1443850480023499</v>
       </c>
       <c r="I10" s="3">
-        <v>3.14438</v>
+        <v>3.1443854247358298</v>
       </c>
       <c r="J10" s="3">
         <f>IF(OR(D10-C10 &lt;= 2 * $M$3, H10=I10), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C11" s="3">
+        <f>IF(H10&gt;I10, F10,C10)</f>
+        <v>4.0325224108484257</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11" si="26">IF(H10&lt;I10,G10,D10)</f>
+        <v>4.2453848357158117</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11" si="27">$M$4 * (D11-C11)</f>
+        <v>0.13155621589049007</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11" si="28">IF(H10&gt;I10,G10, D11 - E11)</f>
+        <v>4.1138286198253216</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11" si="29">IF(H10 &lt; I10, F10, C11 + E11)</f>
+        <v>4.1640787281810487</v>
+      </c>
+      <c r="H11">
+        <v>3.1443865382522902</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.1443850480023499</v>
+      </c>
+      <c r="J11" s="3">
+        <f>IF(OR(D11-C11 &lt;= 2 * $M$3, H11=I11), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C12" s="3">
+        <f>IF(H11&gt;I11, F11,C11)</f>
+        <v>4.1138286198253216</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12" si="30">IF(H11&lt;I11,G11,D11)</f>
+        <v>4.2453848357158117</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12" si="31">$M$4 * (D12-C12)</f>
+        <v>8.1306214331663185E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12" si="32">IF(H11&gt;I11,G11, D12 - E12)</f>
+        <v>4.1640787281810487</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12" si="33">IF(H11 &lt; I11, F11, C12 + E12)</f>
+        <v>4.1951348341569847</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.1443850480023499</v>
+      </c>
+      <c r="I12">
+        <v>3.1443850267585098</v>
+      </c>
+      <c r="J12" s="3">
+        <f>IF(OR(D12-C12 &lt;= 2 * $M$3, H12=I12), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C13" s="3">
+        <f>IF(H12&gt;I12, F12,C12)</f>
+        <v>4.1640787281810487</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="34">IF(H12&lt;I12,G12,D12)</f>
+        <v>4.2453848357158117</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="35">$M$4 * (D13-C13)</f>
+        <v>5.0249938864139698E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="36">IF(H12&gt;I12,G12, D13 - E13)</f>
+        <v>4.1951348341569847</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" ref="G13" si="37">IF(H12 &lt; I12, F12, C13 + E13)</f>
+        <v>4.214328667045188</v>
+      </c>
+      <c r="H13">
+        <v>3.1443850267585098</v>
+      </c>
+      <c r="I13">
+        <v>3.1443850409193899</v>
+      </c>
+      <c r="J13" s="3">
+        <f>IF(OR(D13-C13 &lt;= 2 * $M$3, H13=I13), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C14" s="3">
+        <f>IF(H13&gt;I13, F13,C13)</f>
+        <v>4.1640787281810487</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14" si="38">IF(H13&lt;I13,G13,D13)</f>
+        <v>4.214328667045188</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ref="E14" si="39">$M$4 * (D14-C14)</f>
+        <v>3.1056170715959473E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:H14" si="40">IF(H13&gt;I13,G13, D14 - E14)</f>
+        <v>4.1832724963292289</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14" si="41">IF(H13 &lt; I13, F13, C14 + E14)</f>
+        <v>4.1951348341569847</v>
+      </c>
+      <c r="H14">
+        <v>3.14438502685609</v>
+      </c>
+      <c r="I14">
+        <v>3.1443850267585098</v>
+      </c>
+      <c r="J14" s="3">
+        <f>IF(OR(D14-C14 &lt;= 2 * $M$3, H14=I14), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C15" s="3">
+        <f>IF(H14&gt;I14, F14,C14)</f>
+        <v>4.1832724963292289</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15" si="42">IF(H14&lt;I14,G14,D14)</f>
+        <v>4.214328667045188</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15" si="43">$M$4 * (D15-C15)</f>
+        <v>1.9193769412267078E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ref="F15" si="44">IF(H14&gt;I14,G14, D15 - E15)</f>
+        <v>4.1951348341569847</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ref="G15" si="45">IF(H14 &lt; I14, F14, C15 + E15)</f>
+        <v>4.2024662657414957</v>
+      </c>
+      <c r="H15">
+        <v>3.1443850267585098</v>
+      </c>
+      <c r="I15">
+        <v>3.1443850276443701</v>
+      </c>
+      <c r="J15" s="3">
+        <f>IF(OR(D15-C15 &lt;= 2 * $M$3, H15=I15), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C16" s="3">
+        <f>IF(H15&gt;I15, F15,C15)</f>
+        <v>4.1832724963292289</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16" si="46">IF(H15&lt;I15,G15,D15)</f>
+        <v>4.2024662657414957</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ref="E16" si="47">$M$4 * (D16-C16)</f>
+        <v>1.1862402084940901E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16" si="48">IF(H15&gt;I15,G15, D16 - E16)</f>
+        <v>4.1906038636565546</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" ref="G16" si="49">IF(H15 &lt; I15, F15, C16 + E16)</f>
+        <v>4.1951348341569847</v>
+      </c>
+      <c r="H16">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="I16">
+        <v>3.1443850267585098</v>
+      </c>
+      <c r="J16" s="3">
+        <f>IF(OR(D16-C16 &lt;= 2 * $M$3, H16=I16), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17" s="3">
+        <f>IF(H16&gt;I16, F16,C16)</f>
+        <v>4.1832724963292289</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17" si="50">IF(H16&lt;I16,G16,D16)</f>
+        <v>4.1951348341569847</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17" si="51">$M$4 * (D17-C17)</f>
+        <v>7.3313280970392332E-3</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17" si="52">IF(H16&gt;I16,G16, D17 - E17)</f>
+        <v>4.1878035060599457</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ref="G17" si="53">IF(H16 &lt; I16, F16, C17 + E17)</f>
+        <v>4.1906038636565546</v>
+      </c>
+      <c r="H17">
+        <v>3.1443850267402098</v>
+      </c>
+      <c r="I17">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(OR(D17-C17 &lt;= 2 * $M$3, H17=I17), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C18" s="3">
+        <f>IF(H17&gt;I17, F17,C17)</f>
+        <v>4.1878035060599457</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18" si="54">IF(H17&lt;I17,G17,D17)</f>
+        <v>4.1951348341569847</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ref="E18" si="55">$M$4 * (D18-C18)</f>
+        <v>4.5310100291254436E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ref="F18" si="56">IF(H17&gt;I17,G17, D18 - E18)</f>
+        <v>4.1906038636565546</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ref="G18" si="57">IF(H17 &lt; I17, F17, C18 + E18)</f>
+        <v>4.1923345160890708</v>
+      </c>
+      <c r="H18">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="I18">
+        <v>3.1443850267384899</v>
+      </c>
+      <c r="J18" s="3">
+        <f>IF(OR(D18-C18 &lt;= 2 * $M$3, H18=I18), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="3">
+        <f>IF(H18&gt;I18, F18,C18)</f>
+        <v>4.1878035060599457</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19" si="58">IF(H18&lt;I18,G18,D18)</f>
+        <v>4.1923345160890708</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="59">$M$4 * (D19-C19)</f>
+        <v>2.8003182523403322E-3</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19" si="60">IF(H18&gt;I18,G18, D19 - E19)</f>
+        <v>4.1895341978367302</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" ref="G19" si="61">IF(H18 &lt; I18, F18, C19 + E19)</f>
+        <v>4.1906038636565546</v>
+      </c>
+      <c r="H19">
+        <v>3.144385026738</v>
+      </c>
+      <c r="I19">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(OR(D19-C19 &lt;= 2 * $M$3, H19=I19), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="3">
+        <f>IF(H19&gt;I19, F19,C19)</f>
+        <v>4.1895341978367302</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20" si="62">IF(H19&lt;I19,G19,D19)</f>
+        <v>4.1923345160890708</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ref="E20" si="63">$M$4 * (D20-C20)</f>
+        <v>1.7306918907670807E-3</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ref="F20" si="64">IF(H19&gt;I19,G19, D20 - E20)</f>
+        <v>4.1906038636565546</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" ref="G20" si="65">IF(H19 &lt; I19, F19, C20 + E20)</f>
+        <v>4.1912648897274973</v>
+      </c>
+      <c r="H20">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="I20">
+        <v>3.14438502673798</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(OR(D20-C20 &lt;= 2 * $M$3, H20=I20), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C21" s="3">
+        <f>IF(H20&gt;I20, F20,C20)</f>
+        <v>4.1895341978367302</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ref="D21" si="66">IF(H20&lt;I20,G20,D20)</f>
+        <v>4.1912648897274973</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ref="E21" si="67">$M$4 * (D21-C21)</f>
+        <v>1.0696264320183744E-3</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" ref="F21" si="68">IF(H20&gt;I20,G20, D21 - E21)</f>
+        <v>4.1901952632954789</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" ref="G21" si="69">IF(H20 &lt; I20, F20, C21 + E21)</f>
+        <v>4.1906038636565546</v>
+      </c>
+      <c r="H21">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="I21">
+        <v>3.1443850267379698</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IF(OR(D21-C21 &lt;= 2 * $M$3, H21=I21), 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4">
-        <f>(C10+D10)/2</f>
-        <v>4.2047317268952664</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3.14438502854604</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3">
+        <f>(C21+D21)/2</f>
+        <v>4.1903995437821138</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>3.1443850267379698</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1495,73 +2174,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196B6679-F525-4DEA-8F29-391C6FFD3F85}">
-  <dimension ref="B2:M5"/>
+  <dimension ref="B2:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <f>C3 - C4/C5</f>
         <v>5.5134793322686821</v>
       </c>
-      <c r="E3">
-        <f>D3 - D4/D5</f>
+      <c r="E3" s="5">
+        <f t="shared" ref="D3:M3" si="0">D3 - D4/D5</f>
         <v>5.0590992457566299</v>
       </c>
-      <c r="F3">
-        <f>E3 - E4/E5</f>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
         <v>4.7658402866933613</v>
       </c>
-      <c r="G3">
-        <f>F3 - F4/F5</f>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
         <v>4.5729799936358599</v>
       </c>
-      <c r="H3">
-        <f>G3 - G4/G5</f>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
         <v>4.4451647248358075</v>
       </c>
-      <c r="I3">
-        <f>H3 - H4/H5</f>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
         <v>4.3601759885202416</v>
       </c>
-      <c r="J3">
-        <f>I3 - I4/I5</f>
+      <c r="J3" s="5">
+        <f t="shared" si="0"/>
         <v>4.3035820269732747</v>
       </c>
-      <c r="K3">
-        <f>J3 - J4/J5</f>
+      <c r="K3" s="5">
+        <f t="shared" si="0"/>
         <v>4.2658719824082914</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <f>K3 - K4/K5</f>
         <v>4.2407376532597167</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <f>L3 - L4/L5</f>
         <v>4.2239831218522159</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="5">
+        <f>M3 - M4/M5</f>
+        <v>4.2141417079973627</v>
+      </c>
+      <c r="O3" s="5">
+        <f>N3 - N4/N5</f>
+        <v>4.2076337298431543</v>
+      </c>
+      <c r="P3" s="5">
+        <f>O3 - O4/O5</f>
+        <v>4.2019145217370273</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>P3 - P4/P5</f>
+        <v>4.1981017361877386</v>
+      </c>
+      <c r="R3" s="5">
+        <f>Q3 - Q4/Q5</f>
+        <v>4.1955598851984259</v>
+      </c>
+      <c r="S3" s="5">
+        <f>R3 - R4/R5</f>
+        <v>4.1938653196219349</v>
+      </c>
+      <c r="T3" s="5">
+        <f>S3 - S4/S5</f>
+        <v>4.1927356095628223</v>
+      </c>
+      <c r="U3" s="5">
+        <f>T3 - T4/T5</f>
+        <v>4.191982469657006</v>
+      </c>
+      <c r="V3" s="5">
+        <f>U3 - U4/U5</f>
+        <v>4.1914803764632778</v>
+      </c>
+      <c r="W3" s="5">
+        <f>V3 - V4/V5</f>
+        <v>4.1911456479496749</v>
+      </c>
+      <c r="X3" s="5">
+        <f>W3 - W4/W5</f>
+        <v>4.1909224954400592</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>X3 - X4/X5</f>
+        <v>4.1907737272649586</v>
+      </c>
+      <c r="Z3" s="5">
+        <f>Y3 - Y4/Y5</f>
+        <v>4.1906745484235408</v>
+      </c>
+      <c r="AA3" s="5">
+        <f>Z3 - Z4/Z5</f>
+        <v>4.1906084292488943</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>14.5709000010706</v>
@@ -1587,16 +2322,58 @@
       <c r="J4">
         <v>2.5343578181450202E-4</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>7.5081326948882594E-5</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>2.2244903736988801E-5</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>4.5087945348023704E-6</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1.30389407165556E-6</v>
+      </c>
+      <c r="O4" s="4">
+        <v>8.8494157314499703E-7</v>
+      </c>
+      <c r="P4" s="4">
+        <v>2.6220405395934199E-7</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>7.7689962523105404E-8</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2.3019233028738899E-8</v>
+      </c>
+      <c r="S4" s="4">
+        <v>6.8205149976904104E-9</v>
+      </c>
+      <c r="T4" s="4">
+        <v>2.0208932314723701E-9</v>
+      </c>
+      <c r="U4" s="4">
+        <v>5.9878303316281899E-10</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1.77416763155863E-10</v>
+      </c>
+      <c r="W4" s="4">
+        <v>5.2568050220065203E-11</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1.55756671634542E-11</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>4.6150206304165101E-12</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1.36741023909475E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>3.24770597979628</v>
@@ -1628,8 +2405,51 @@
       <c r="L5">
         <v>1.3276947708027299E-3</v>
       </c>
+      <c r="M5">
+        <v>4.5814499840170502E-4</v>
+      </c>
+      <c r="N5">
+        <v>2.00353172791836E-4</v>
+      </c>
+      <c r="O5">
+        <v>1.54731486724013E-4</v>
+      </c>
+      <c r="P5" s="4">
+        <v>6.8769683101699506E-5</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3.0564326095333002E-5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1.35841500311882E-5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>6.0374030864578801E-6</v>
+      </c>
+      <c r="T5" s="4">
+        <v>2.6832906022729299E-6</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1.1925734916202201E-6</v>
+      </c>
+      <c r="V5" s="4">
+        <v>5.3003181965625097E-7</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2.3557006063084199E-7</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1.04697574954461E-7</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>4.6532310364439303E-8</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>2.06809937724435E-8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>